--- a/trunk/HandyDevices/Oven/oven.xlsx
+++ b/trunk/HandyDevices/Oven/oven.xlsx
@@ -16,22 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Temperature</t>
   </si>
   <si>
     <t>Adc value</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -47,12 +67,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,16 +89,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -197,11 +228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="31274496"/>
-        <c:axId val="31276032"/>
+        <c:axId val="54790784"/>
+        <c:axId val="54796672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31274496"/>
+        <c:axId val="54790784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -211,7 +242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31276032"/>
+        <c:crossAx val="54796672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -219,7 +250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31276032"/>
+        <c:axId val="54796672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -230,7 +261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31274496"/>
+        <c:crossAx val="54790784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -251,16 +282,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -569,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +612,7 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,16 +620,56 @@
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
       <c r="B2">
         <v>166</v>
       </c>
+      <c r="D2">
+        <f>(B2-B3)/(A2-A3)</f>
+        <v>0.08</v>
+      </c>
+      <c r="E2">
+        <f>B2-D2*A2</f>
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2120</v>
+      </c>
+      <c r="G2">
+        <f>F2*D2+E2</f>
+        <v>175.6</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <f>(I2-E2)/D2</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2300</v>
       </c>
@@ -609,8 +680,24 @@
         <f>B3-B2</f>
         <v>24</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="0">(B3-B4)/(A3-A4)</f>
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="1">B3-D3*A3</f>
+        <v>75</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="I3" s="3">
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <f>(I3-E3)/D3</f>
+        <v>2500</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2600</v>
       </c>
@@ -618,11 +705,27 @@
         <v>205</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C9" si="0">B4-B3</f>
+        <f t="shared" ref="C4:C9" si="2">B4-B3</f>
         <v>15</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-11.666666666666657</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="I4" s="3">
+        <v>225</v>
+      </c>
+      <c r="J4">
+        <f>(I4-E4)/D4</f>
+        <v>2840</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2900</v>
       </c>
@@ -630,11 +733,27 @@
         <v>230</v>
       </c>
       <c r="C5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-11.666666666666657</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="I5" s="3">
+        <v>250</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J8" si="3">(I5-E5)/D5</f>
+        <v>3139.9999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3200</v>
       </c>
@@ -642,11 +761,27 @@
         <v>255</v>
       </c>
       <c r="C6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-11.666666666666629</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="I6" s="3">
+        <v>275</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>3439.9999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3500</v>
       </c>
@@ -654,11 +789,27 @@
         <v>280</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>46.666666666666657</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="I7" s="3">
+        <v>300</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>3800</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3800</v>
       </c>
@@ -666,11 +817,27 @@
         <v>300</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0.09</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-42</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="I8" s="3">
+        <v>320</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>4022.2222222222222</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4000</v>
       </c>
@@ -678,9 +845,11 @@
         <v>318</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="F9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
